--- a/temp/Журнал 07.07.2024.xlsx
+++ b/temp/Журнал 07.07.2024.xlsx
@@ -65,49 +65,6 @@
   </si>
   <si>
     <t>ошибки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.06.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Медицинский осмотр,Поргружение в 
-производственную безопасность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.06.2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45687</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">01:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instance of 'DateWithInfo',Instance of 'DateWithInfo',Instance of 'DateWithInfo',Instance of 'DateWithInfo',Instance of 'DateWithInfo',Instance of 'DateWithInfo'</t>
   </si>
 </sst>
 </file>
@@ -544,292 +501,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2"/>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2"/>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3"/>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3"/>
-      <c r="O3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4"/>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4"/>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5"/>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5"/>
-      <c r="O5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6"/>
-      <c r="H6"/>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6"/>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7"/>
-      <c r="H7"/>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7"/>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8"/>
-      <c r="H8"/>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8"/>
-      <c r="N8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9"/>
-      <c r="H9"/>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9"/>
-      <c r="N9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10"/>
-      <c r="H10"/>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10"/>
-      <c r="N10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11"/>
-      <c r="H11"/>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11"/>
-      <c r="N11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12"/>
-      <c r="M12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12"/>
-      <c r="O12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13"/>
-      <c r="H13"/>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13"/>
-      <c r="N13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">
